--- a/docs/GL/Scrum Master Report.xlsx
+++ b/docs/GL/Scrum Master Report.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_9248CACD84F5E813E97046798E3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9DA1B2-A585-4926-A4F3-49E80AA51878}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\gp-dam-teamflexsante\docs\GL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98489B-19AE-4599-91BE-F10E4D56463C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Assignee / Weeks</t>
   </si>
@@ -145,6 +150,18 @@
   </si>
   <si>
     <t>UC Insert Data</t>
+  </si>
+  <si>
+    <t>Create a Scrum Master Excel Report</t>
+  </si>
+  <si>
+    <t>Rework UC2 Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>Create a Product Owner Excel Report</t>
+  </si>
+  <si>
+    <t>Add exceptions for UC1 Sequence Diagrams</t>
   </si>
 </sst>
 </file>
@@ -236,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -353,13 +370,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,6 +424,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +448,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -698,250 +746,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>44907</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>44929</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="23">
         <v>44937</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <v>44942</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="G4" s="27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="20"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="20"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="20"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="20"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="20"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="13"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="13"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="13"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="13"/>
-      <c r="D17" s="17" t="s">
+      <c r="G16" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="12"/>
+      <c r="D17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="13"/>
-      <c r="D18" s="17" t="s">
+      <c r="G17" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="12"/>
+      <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="13"/>
-      <c r="D19" s="9" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="13"/>
-      <c r="D20" s="9" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="12"/>
+      <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="13"/>
-      <c r="D21" s="23" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="12"/>
+      <c r="D21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="13"/>
-      <c r="D22" s="8" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="12"/>
+      <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="13"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="12" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="13"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14" t="s">
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="13"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="12"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="14"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="35" spans="3:5" ht="18">
-      <c r="D35" s="2" t="s">
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="13"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="35" spans="3:5" ht="17.399999999999999">
+      <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -949,7 +1030,7 @@
       <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E36" t="s">
@@ -957,7 +1038,7 @@
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E37" t="s">
@@ -965,7 +1046,7 @@
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E38" t="s">
@@ -973,7 +1054,7 @@
       </c>
     </row>
     <row r="39" spans="3:5">
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E39" t="s">
@@ -981,7 +1062,7 @@
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E40" t="s">

--- a/docs/GL/Scrum Master Report.xlsx
+++ b/docs/GL/Scrum Master Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\gp-dam-teamflexsante\docs\GL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98489B-19AE-4599-91BE-F10E4D56463C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B901AEA-F742-4F2A-9358-2A323DBAE657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Assignee / Weeks</t>
   </si>
@@ -162,13 +162,46 @@
   </si>
   <si>
     <t>Add exceptions for UC1 Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>User model#75</t>
+  </si>
+  <si>
+    <t>UI for Register page#66</t>
+  </si>
+  <si>
+    <t>Register page logic#67</t>
+  </si>
+  <si>
+    <t>UI for Login page#68</t>
+  </si>
+  <si>
+    <t>Login page logic#69</t>
+  </si>
+  <si>
+    <t>User authentication#65</t>
+  </si>
+  <si>
+    <t>User authentication testing#89</t>
+  </si>
+  <si>
+    <t>Git workflow#88</t>
+  </si>
+  <si>
+    <t>Update Spécification document UC3#93</t>
+  </si>
+  <si>
+    <t>ReWork on the Activity Diagram for the UC#94</t>
+  </si>
+  <si>
+    <t>Testing procedure document#87</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +277,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,8 +438,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -428,10 +470,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G40"/>
+  <dimension ref="C3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -757,9 +800,10 @@
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:8">
       <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
@@ -775,8 +819,11 @@
       <c r="G3" s="26">
         <v>44942</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="H3" s="26">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
@@ -792,8 +839,11 @@
       <c r="G4" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="3:7">
+      <c r="H4" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
       <c r="C5" s="19"/>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -802,43 +852,52 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
+      <c r="H5" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="19"/>
       <c r="D6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="G6" s="27"/>
+      <c r="H6" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="3:7">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="19"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="19"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="3:7">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="3:8">
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
@@ -849,48 +908,60 @@
       <c r="F10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="3:7">
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="12"/>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="3:7">
+      <c r="G11" s="27"/>
+      <c r="H11" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="12"/>
       <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="G12" s="27"/>
+      <c r="H12" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="12"/>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -903,11 +974,14 @@
       <c r="F16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="12"/>
       <c r="D17" s="16" t="s">
         <v>16</v>
@@ -918,70 +992,86 @@
       <c r="F17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="12"/>
       <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="G18" s="27"/>
+      <c r="H18" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="12"/>
       <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="G19" s="27"/>
+      <c r="H19" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="12"/>
       <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="12"/>
       <c r="D21" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="3:7">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="3:7">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24" s="12"/>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="3:7">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="3:8">
       <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
@@ -994,32 +1084,36 @@
       <c r="F25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="3:7">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="3:8">
       <c r="C26" s="12"/>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
       <c r="F26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="3:7">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="3:8">
       <c r="C27" s="12"/>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
       <c r="F27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="3:7">
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="3:8">
       <c r="C28" s="13"/>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="35" spans="3:5" ht="17.399999999999999">
       <c r="D35" s="1" t="s">
@@ -1070,6 +1164,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/75" xr:uid="{B08551AE-12E4-4A9E-A4BF-29FB1607344E}"/>
+    <hyperlink ref="H10" r:id="rId2" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/66" xr:uid="{E4E808BA-6CD4-4724-A52B-B3C6EFCAA2AD}"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/67" xr:uid="{673ED4F7-33AF-4B50-95ED-C6C06BC26150}"/>
+    <hyperlink ref="H11" r:id="rId4" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/68" xr:uid="{B8D57AAA-011B-427E-8EB4-63099C78FD4B}"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/69" xr:uid="{0549C9AD-7C81-4D0C-992E-20A6ABEBA1D3}"/>
+    <hyperlink ref="H17" r:id="rId6" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/65" xr:uid="{7DC3526E-2BAF-4DEF-90C0-B9BBCD232FD3}"/>
+    <hyperlink ref="H18" r:id="rId7" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/89" xr:uid="{49B241C9-CC97-4306-A524-0F8DC0507548}"/>
+    <hyperlink ref="H6" r:id="rId8" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/88" xr:uid="{2DB9BBFD-B3BD-4AE5-BA79-5E38510B9391}"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/93" xr:uid="{1A0C60AA-AB40-4F1D-B1FC-896FDF8E1472}"/>
+    <hyperlink ref="H19" r:id="rId10" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/94" xr:uid="{6D28EB6A-7AB2-4678-B7CE-99E049841321}"/>
+    <hyperlink ref="H20" r:id="rId11" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/87" xr:uid="{5F0245A3-B191-40B7-928E-4A6E51F223B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/docs/GL/Scrum Master Report.xlsx
+++ b/docs/GL/Scrum Master Report.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\gp-dam-teamflexsante\docs\GL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B901AEA-F742-4F2A-9358-2A323DBAE657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC127028-BB1A-4D67-B7F6-4E21BB872F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Assignee / Weeks</t>
   </si>
@@ -50,12 +45,39 @@
     <t>Work on UC2 diagrams in Specification document</t>
   </si>
   <si>
+    <t>Create a Scrum Master Excel Report</t>
+  </si>
+  <si>
+    <t>Register page logic#67</t>
+  </si>
+  <si>
+    <t>Profil page logic#74</t>
+  </si>
+  <si>
     <t>UC2 AD</t>
   </si>
   <si>
+    <t>Rework UC2 Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>Login page logic#69</t>
+  </si>
+  <si>
+    <t>HealthInfo page logic#77</t>
+  </si>
+  <si>
     <t>UC2 SD</t>
   </si>
   <si>
+    <t>Git workflow#88</t>
+  </si>
+  <si>
+    <t>Work on Automatic Testing#99</t>
+  </si>
+  <si>
+    <t>Testing for the job to import or generate health info#100</t>
+  </si>
+  <si>
     <t>Matis</t>
   </si>
   <si>
@@ -65,12 +87,24 @@
     <t>Work on UC3 specs &amp; diagrams in Specification document</t>
   </si>
   <si>
+    <t>UI for Register page#66</t>
+  </si>
+  <si>
+    <t>UI for HealthInfo page#76</t>
+  </si>
+  <si>
     <t>UC3 AD</t>
   </si>
   <si>
+    <t>UI for Login page#68</t>
+  </si>
+  <si>
     <t>UC3 SD</t>
   </si>
   <si>
+    <t>Update Spécification document UC3#93</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
@@ -83,6 +117,12 @@
     <t>Work on specification document</t>
   </si>
   <si>
+    <t>Create a Product Owner Excel Report</t>
+  </si>
+  <si>
+    <t>User model#75</t>
+  </si>
+  <si>
     <t>UC4 AD</t>
   </si>
   <si>
@@ -92,15 +132,33 @@
     <t>Create task on development &amp; non development board</t>
   </si>
   <si>
+    <t>Add exceptions for UC1 Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>User authentication#65</t>
+  </si>
+  <si>
+    <t>Create job to import health infos from sensor's API#78</t>
+  </si>
+  <si>
     <t>UC4 SD</t>
   </si>
   <si>
+    <t>User authentication testing#89</t>
+  </si>
+  <si>
     <t>UC1 Specification</t>
   </si>
   <si>
+    <t>ReWork on the Activity Diagram for the UC#94</t>
+  </si>
+  <si>
     <t>UC1 AD</t>
   </si>
   <si>
+    <t>Testing procedure document#87</t>
+  </si>
+  <si>
     <t>UC1 SD</t>
   </si>
   <si>
@@ -119,9 +177,6 @@
     <t>Use case</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>UC 1</t>
   </si>
   <si>
@@ -150,129 +205,16 @@
   </si>
   <si>
     <t>UC Insert Data</t>
-  </si>
-  <si>
-    <t>Create a Scrum Master Excel Report</t>
-  </si>
-  <si>
-    <t>Rework UC2 Sequence Diagrams</t>
-  </si>
-  <si>
-    <t>Create a Product Owner Excel Report</t>
-  </si>
-  <si>
-    <t>Add exceptions for UC1 Sequence Diagrams</t>
-  </si>
-  <si>
-    <t>User model#75</t>
-  </si>
-  <si>
-    <t>UI for Register page#66</t>
-  </si>
-  <si>
-    <t>Register page logic#67</t>
-  </si>
-  <si>
-    <t>UI for Login page#68</t>
-  </si>
-  <si>
-    <t>Login page logic#69</t>
-  </si>
-  <si>
-    <t>User authentication#65</t>
-  </si>
-  <si>
-    <t>User authentication testing#89</t>
-  </si>
-  <si>
-    <t>Git workflow#88</t>
-  </si>
-  <si>
-    <t>Update Spécification document UC3#93</t>
-  </si>
-  <si>
-    <t>ReWork on the Activity Diagram for the UC#94</t>
-  </si>
-  <si>
-    <t>Testing procedure document#87</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri (Corps)"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF70AD47"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,16 +227,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Corps)"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,31 +328,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -350,7 +349,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -360,22 +361,13 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,16 +380,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -413,16 +416,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,7 +429,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -440,41 +441,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,7 +497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,397 +793,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1"/>
+    <col min="9" max="9" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="10" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="3">
         <v>44907</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="3">
         <v>44929</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="4">
         <v>44937</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="6">
         <v>44942</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="6">
         <v>44948</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="18" t="s">
+      <c r="I3" s="3">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="19"/>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="19"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="19"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="12"/>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="12"/>
-      <c r="D12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="12"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="12"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="12"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="12"/>
-      <c r="D17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="12"/>
-      <c r="D18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="12"/>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28" t="s">
+      <c r="E37" s="26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="12"/>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="12"/>
-      <c r="D21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="12"/>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="12"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="12"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="12"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="13"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="35" spans="3:5" ht="17.399999999999999">
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="D37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="D38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="D39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="D40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
+      <c r="E38" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/75" xr:uid="{B08551AE-12E4-4A9E-A4BF-29FB1607344E}"/>
-    <hyperlink ref="H10" r:id="rId2" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/66" xr:uid="{E4E808BA-6CD4-4724-A52B-B3C6EFCAA2AD}"/>
-    <hyperlink ref="H4" r:id="rId3" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/67" xr:uid="{673ED4F7-33AF-4B50-95ED-C6C06BC26150}"/>
-    <hyperlink ref="H11" r:id="rId4" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/68" xr:uid="{B8D57AAA-011B-427E-8EB4-63099C78FD4B}"/>
-    <hyperlink ref="H5" r:id="rId5" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/69" xr:uid="{0549C9AD-7C81-4D0C-992E-20A6ABEBA1D3}"/>
-    <hyperlink ref="H17" r:id="rId6" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/65" xr:uid="{7DC3526E-2BAF-4DEF-90C0-B9BBCD232FD3}"/>
-    <hyperlink ref="H18" r:id="rId7" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/89" xr:uid="{49B241C9-CC97-4306-A524-0F8DC0507548}"/>
-    <hyperlink ref="H6" r:id="rId8" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/88" xr:uid="{2DB9BBFD-B3BD-4AE5-BA79-5E38510B9391}"/>
-    <hyperlink ref="H12" r:id="rId9" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/93" xr:uid="{1A0C60AA-AB40-4F1D-B1FC-896FDF8E1472}"/>
-    <hyperlink ref="H19" r:id="rId10" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/94" xr:uid="{6D28EB6A-7AB2-4678-B7CE-99E049841321}"/>
-    <hyperlink ref="H20" r:id="rId11" display="https://github.com/IUT-DEPT-INFO-UCA/gp-dam-teamflexsante/issues/87" xr:uid="{5F0245A3-B191-40B7-928E-4A6E51F223B4}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{FE47DB5C-D080-4FB4-9D3E-A3DF36337576}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{A398D274-1809-4619-93B9-3D601F36EFD8}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{289946BD-22BE-4FE9-BD13-8D9E8D540F61}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{B8C6C802-2E90-4D37-9F7B-DF7AF8BEBBC5}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{BE4F0D52-33A5-4A1A-BE51-32DC6B8BFA0F}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{3290CFD5-EB0F-40C7-BC96-5E899AC07426}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{1991862F-25FC-47D0-8C7D-80B3E4BAFA5F}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{E05C31B8-A92E-491C-9602-47B49C503211}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{A1B2E2F7-B0FA-4D25-B066-230A52C25612}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{CCC51E3D-07E5-44CA-9364-4BA07F5C96C2}"/>
+    <hyperlink ref="I11" r:id="rId11" xr:uid="{49F6054E-F7A2-4CB7-9CC7-34237676D30D}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{E27683C5-0B96-40FE-B595-E8FC5732C7DE}"/>
+    <hyperlink ref="I12" r:id="rId13" xr:uid="{A2CE9FC4-341F-4DEF-A9B3-36ACDC147951}"/>
+    <hyperlink ref="H16" r:id="rId14" xr:uid="{8520D87F-8AB6-4A7C-AA26-50041870A0AB}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{183D4D66-4BD1-4371-87FA-90CE7ADB6CEF}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{399E93EB-8E42-44BE-85CB-BD4FBC801B66}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{1A7A90CC-F25D-4D75-89C0-9B3E5EF3BC49}"/>
+    <hyperlink ref="H18" r:id="rId18" xr:uid="{14D0AC78-9B00-452D-8F4E-3E5CDD44BC9D}"/>
+    <hyperlink ref="I18" r:id="rId19" xr:uid="{BD5BB246-05ED-4F54-8F22-13DB26F71B55}"/>
+    <hyperlink ref="H19" r:id="rId20" xr:uid="{CBDBB727-1455-470D-8F50-8E635E58066C}"/>
+    <hyperlink ref="I19" r:id="rId21" xr:uid="{141618BB-CCC3-4579-8174-4E0465513933}"/>
+    <hyperlink ref="H20" r:id="rId22" xr:uid="{393FFB11-97ED-4D18-975B-AC7A9F52D99E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId12"/>
 </worksheet>
 </file>